--- a/Llistat_Popeye_Safety_31052022.xlsx
+++ b/Llistat_Popeye_Safety_31052022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Andreu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC4CF04-4360-4671-9129-866D95B603BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B285F-92F9-463B-B8A9-00197EE815BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="855" windowWidth="13545" windowHeight="8535" xr2:uid="{D3958681-0B41-464C-9310-9031D7D9E870}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="15030" windowHeight="14370" xr2:uid="{D3958681-0B41-464C-9310-9031D7D9E870}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>#CODE</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Carretera N-332 CC Dos Mares, 30730 San Javier, Murcia</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>sfp 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfp  </t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,11 +271,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,6 +312,9 @@
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,15 +630,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A0CDC-410C-48DF-891B-D895FA360CAC}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +661,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>14029</v>
       </c>
@@ -657,7 +685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>14037</v>
       </c>
@@ -677,7 +705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>14095</v>
       </c>
@@ -697,7 +725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>13541</v>
       </c>
@@ -717,7 +745,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>13795</v>
       </c>
@@ -736,8 +764,11 @@
       <c r="F6" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>13826</v>
       </c>
@@ -756,8 +787,11 @@
       <c r="F7" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>13768</v>
       </c>
@@ -777,7 +811,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>14125</v>
       </c>
@@ -797,7 +831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>13884</v>
       </c>
@@ -817,7 +851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>14047</v>
       </c>
@@ -837,7 +871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>13696</v>
       </c>
@@ -857,7 +891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13674</v>
       </c>
@@ -877,7 +911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14123</v>
       </c>
